--- a/clcore_ig/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore_ig/output/StructureDefinition-ImmunizationCL.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -458,26 +458,71 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Immunization.extension:campana</t>
-  </si>
-  <si>
-    <t>campana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/NombreCampana}
+    <t>Immunization.extension:ClaseVacuna</t>
+  </si>
+  <si>
+    <t>ClaseVacuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/ClaseVacuna}
 </t>
   </si>
   <si>
-    <t>Nombre de la Campaña de vacunación establecida por el RNI (Registro Nacional de Inmunizaciones)</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye los nombres de las distintas Campañas que se realizan y estan registradas en el RNI</t>
+    <t>Clase de Vacuna</t>
+  </si>
+  <si>
+    <t>Corresponde a un Id creado por el equipo de gestión de datos del Deis</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Immunization.extension:Campana</t>
+  </si>
+  <si>
+    <t>Campana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/Campana}
+</t>
+  </si>
+  <si>
+    <t>Nombre Campaña de Vacunación</t>
+  </si>
+  <si>
+    <t>Immunization.extension:Dosis</t>
+  </si>
+  <si>
+    <t>Dosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/Dosis}
+</t>
+  </si>
+  <si>
+    <t>Dosis Administrada</t>
+  </si>
+  <si>
+    <t>Definición de la dosis administrada</t>
+  </si>
+  <si>
+    <t>Immunization.extension:ProxFecha</t>
+  </si>
+  <si>
+    <t>ProxFecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/ProxFecha}
+</t>
+  </si>
+  <si>
+    <t>Proxima fecha de vacunación</t>
+  </si>
+  <si>
+    <t>Fecha de la próxima fecha de vacunación si corresponde</t>
+  </si>
+  <si>
     <t>Immunization.modifierExtension</t>
   </si>
   <si>
@@ -508,7 +553,7 @@
 </t>
   </si>
   <si>
-    <t>Identificador(es) por los que se conoce este registro de Inmunización</t>
+    <t>Identificador(es) por los que se conoce este registro de Inmunización. En el caso del sistema público correspondería al ID del Registro de Inmunización</t>
   </si>
   <si>
     <t>Es el número de identificación del evento donde a un paciente se le administra una vacuna o registro de inmunización</t>
@@ -572,10 +617,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The reason why a vaccine was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSRazonNOTinm</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -606,29 +648,16 @@
     <t>Immunization.statusReason.extension</t>
   </si>
   <si>
-    <t>Motivo de no realizar la inmunización</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason.extension:statusReason</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/RazonNOrealizarseInm}
-</t>
-  </si>
-  <si>
-    <t>Razones por las cuales no se pudo realizar la inmunización</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye las razones por la cuales no pudo llevarse a cabo la inmunización</t>
   </si>
   <si>
     <t>Immunization.statusReason.coding</t>
@@ -662,7 +691,7 @@
     <t>Immunization.statusReason.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
+    <t>Descripción de la razon por la cual noi se produjo la inmunizción</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -692,10 +721,7 @@
     <t>Vacuna que se administró o se iba a administrar. Se proporciona valores que utilizan en el RNI (Registro Nacional de Inmunizaciones)</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposVacunas</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -719,29 +745,13 @@
     <t>Immunization.vaccineCode.extension</t>
   </si>
   <si>
-    <t>Nombre de vacuna administrada</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension:tipov</t>
-  </si>
-  <si>
-    <t>tipov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/TiposVacunaRNI}
-</t>
-  </si>
-  <si>
-    <t>Código de tipos de Vacunas en Chile</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de los tipos de vacunas que existe en el Registro Nacional de Inmunizaciones RNI</t>
-  </si>
-  <si>
     <t>Immunization.vaccineCode.coding</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.text</t>
+  </si>
+  <si>
+    <t>Nombre normalizado a nivel nacional de la vacuna</t>
   </si>
   <si>
     <t>Immunization.patient</t>
@@ -801,10 +811,10 @@
 string</t>
   </si>
   <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
+    <t>Momento de administración de la vacuna</t>
+  </si>
+  <si>
+    <t>Momento en la que se realiza la inmunización o se administra la vacuna</t>
   </si>
   <si>
     <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
@@ -814,6 +824,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -839,16 +852,25 @@
 </t>
   </si>
   <si>
-    <t>Fecha de administración de la vacuna</t>
-  </si>
-  <si>
-    <t>Fecha y hora en la que se realiza la inmunización o se administra la vacuna</t>
+    <t>Fecha y hora de la administración</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]:occurrenceString</t>
+  </si>
+  <si>
+    <t>occurrenceString</t>
+  </si>
+  <si>
+    <t>Momento de la administración</t>
   </si>
   <si>
     <t>Immunization.recorded</t>
   </si>
   <si>
-    <t>Cuando la inmunización se capturó por primera vez en el registro del sujeto</t>
+    <t>Cuando se realizo el regstro del la inmunización</t>
   </si>
   <si>
     <t>La fecha en que se registró por primera vez la ocurrencia de la inmunización, potencialmente significativamente después de la ocurrencia del evento</t>
@@ -888,10 +910,10 @@
     <t>Immunization.reportOrigin</t>
   </si>
   <si>
-    <t>Indicates the source of a secondarily reported record</t>
-  </si>
-  <si>
-    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+    <t>Fuente de registro</t>
+  </si>
+  <si>
+    <t>También pude ser considerado como registro secundario</t>
   </si>
   <si>
     <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
@@ -931,111 +953,6 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>Immunization.location.id</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension</t>
-  </si>
-  <si>
-    <t>Extensión para los Sistemas de Salud, por ejemplo: S.S Viña del mar Quillota</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension:ssalud</t>
-  </si>
-  <si>
-    <t>ssalud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/ServicioSalud}
-</t>
-  </si>
-  <si>
-    <t>Sistema Nacional de Servicios de Salud</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye los códigos de los Servicios de Salud que existen en el país</t>
-  </si>
-  <si>
-    <t>Immunization.location.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.location.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Immunization.location.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Immunization.manufacturer</t>
   </si>
   <si>
@@ -1190,12 +1107,6 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Immunization.performer.modifierExtension</t>
   </si>
   <si>
@@ -1222,6 +1133,9 @@
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
@@ -1415,6 +1329,9 @@
     <t>Immunization.programEligibility</t>
   </si>
   <si>
+    <t>Corresponde al Id del criterio de elegibilidad de la vacuna administrada</t>
+  </si>
+  <si>
     <t>Indica la elegibilidad de un paciente para un programa de financiamiento</t>
   </si>
   <si>
@@ -1422,6 +1339,138 @@
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.id</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.extension</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.code</t>
+  </si>
+  <si>
+    <t>Código identificador del criterio</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.display</t>
+  </si>
+  <si>
+    <t>Descripción del programa asociado al identificador del criterio</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
   </si>
   <si>
     <t>Immunization.fundingSource</t>
@@ -1500,10 +1549,10 @@
     <t>Immunization.reaction.reported</t>
   </si>
   <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
+    <t>Indica si se reporto reacción adversa a la vacuna</t>
+  </si>
+  <si>
+    <t>Reporte de reacción adversa a la vacuna</t>
   </si>
   <si>
     <t>(HL7 v2 doesn't seem to provide for this)</t>
@@ -1907,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,8 +1965,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.3671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
@@ -3032,7 +3081,7 @@
         <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
@@ -3133,43 +3182,41 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3217,7 +3264,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3226,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>141</v>
@@ -3238,7 +3285,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3249,12 +3296,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3263,7 +3312,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>91</v>
@@ -3275,13 +3324,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3332,7 +3381,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3341,41 +3390,43 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -3384,23 +3435,21 @@
         <v>91</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3425,11 +3474,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3447,31 +3498,31 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3479,44 +3530,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3540,13 +3593,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3564,28 +3617,28 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3596,10 +3649,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3610,10 +3663,10 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
@@ -3622,13 +3675,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3679,42 +3732,42 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3722,30 +3775,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3770,55 +3825,53 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3826,14 +3879,12 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3845,7 +3896,7 @@
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3854,15 +3905,17 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3887,13 +3940,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3911,28 +3962,28 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3943,10 +3994,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3957,7 +4008,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3966,23 +4017,19 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4030,28 +4077,28 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4062,21 +4109,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4085,23 +4132,21 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4137,40 +4182,40 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4181,10 +4226,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4192,13 +4237,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
@@ -4207,16 +4252,20 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4240,13 +4289,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4264,13 +4313,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -4279,27 +4328,27 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4313,25 +4362,29 @@
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4379,7 +4432,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4391,16 +4444,16 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4411,10 +4464,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4425,25 +4478,25 @@
         <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4470,76 +4523,72 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4554,13 +4603,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4611,19 +4660,19 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4632,7 +4681,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4643,14 +4692,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4666,23 +4715,21 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4718,19 +4765,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4742,16 +4789,16 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4762,10 +4809,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4776,7 +4823,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4788,19 +4835,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4849,13 +4896,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4867,10 +4914,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4881,10 +4928,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4892,7 +4939,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -4907,16 +4954,20 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4964,10 +5015,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -4979,16 +5030,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4996,10 +5047,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5007,28 +5058,28 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5079,10 +5130,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5094,16 +5145,16 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5111,10 +5162,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5122,7 +5173,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5134,20 +5185,18 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5184,20 +5233,22 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
@@ -5209,37 +5260,35 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -5254,16 +5303,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5301,19 +5350,17 @@
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>90</v>
@@ -5328,29 +5375,31 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5362,24 +5411,26 @@
         <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5428,10 +5479,10 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>90</v>
@@ -5443,29 +5494,31 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5486,16 +5539,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5545,10 +5598,10 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>90</v>
@@ -5560,27 +5613,27 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5594,7 +5647,7 @@
         <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -5603,17 +5656,15 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5638,13 +5689,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5662,7 +5713,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5680,13 +5731,13 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5694,10 +5745,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5705,30 +5756,32 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5777,7 +5830,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5792,16 +5845,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5809,10 +5862,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5826,7 +5879,7 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
@@ -5835,15 +5888,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5868,13 +5923,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5892,7 +5947,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5904,19 +5959,19 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5924,10 +5979,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5938,10 +5993,10 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -5950,13 +6005,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5995,43 +6050,43 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6039,14 +6094,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6067,13 +6120,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6124,42 +6177,42 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6173,26 +6226,24 @@
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6241,7 +6292,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6250,7 +6301,7 @@
         <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
@@ -6259,24 +6310,24 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6290,26 +6341,24 @@
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6334,31 +6383,31 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6376,10 +6425,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6390,10 +6439,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6413,20 +6462,18 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6451,13 +6498,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6493,24 +6540,24 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6530,20 +6577,18 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6613,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6592,7 +6637,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6610,24 +6655,24 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6650,13 +6695,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6707,7 +6752,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6725,24 +6770,24 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6753,7 +6798,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>91</v>
@@ -6762,16 +6807,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6822,13 +6867,13 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -6837,27 +6882,27 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6871,7 +6916,7 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
@@ -6880,13 +6925,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>198</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6937,7 +6982,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6949,16 +6994,16 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6969,21 +7014,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6995,15 +7040,17 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7028,13 +7075,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7052,74 +7099,78 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>205</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7143,13 +7194,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7167,42 +7218,42 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7222,16 +7273,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7258,13 +7309,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7282,7 +7333,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7297,13 +7348,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7314,10 +7365,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7325,10 +7376,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>91</v>
@@ -7340,15 +7391,17 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7397,13 +7450,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7412,16 +7465,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7429,10 +7482,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7443,7 +7496,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7452,16 +7505,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7512,28 +7565,28 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7544,14 +7597,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7570,17 +7623,15 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7605,13 +7656,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7629,7 +7680,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>191</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7641,16 +7692,16 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7661,14 +7712,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7681,26 +7732,22 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7748,7 +7795,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7760,10 +7807,10 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7780,10 +7827,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7800,26 +7847,30 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7839,13 +7890,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7863,7 +7914,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7878,13 +7929,13 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7895,10 +7946,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7906,32 +7957,30 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7956,13 +8005,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7980,13 +8029,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -7995,16 +8044,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>396</v>
+        <v>133</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8012,10 +8061,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8035,16 +8084,16 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8095,7 +8144,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8107,16 +8156,16 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8127,10 +8176,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8141,7 +8190,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8153,13 +8202,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>197</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8186,13 +8235,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8210,28 +8259,28 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>200</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8242,14 +8291,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8268,15 +8317,17 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>202</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8325,7 +8376,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8337,16 +8388,16 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8357,21 +8408,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8383,24 +8434,24 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8444,25 +8495,25 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>133</v>
@@ -8476,10 +8527,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8490,7 +8541,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8502,13 +8553,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8535,13 +8586,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8559,13 +8610,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8577,7 +8628,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>133</v>
@@ -8591,10 +8642,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8605,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8617,13 +8668,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8674,19 +8725,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>430</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8706,10 +8757,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8732,13 +8783,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>184</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>185</v>
+        <v>416</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8789,7 +8840,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>186</v>
+        <v>414</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8801,16 +8852,16 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8821,21 +8872,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8847,17 +8898,15 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8906,28 +8955,28 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>191</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8938,14 +8987,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8955,29 +9004,25 @@
         <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9001,13 +9046,11 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9025,7 +9068,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9037,13 +9080,13 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>133</v>
@@ -9057,10 +9100,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9083,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>436</v>
+        <v>198</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9140,7 +9183,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>434</v>
+        <v>199</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9152,16 +9195,16 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9172,21 +9215,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9198,15 +9241,17 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>439</v>
+        <v>202</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9243,31 +9288,31 @@
         <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>205</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9276,7 +9321,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9287,10 +9332,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9301,7 +9346,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9310,19 +9355,23 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>208</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9370,13 +9419,13 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>212</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
@@ -9388,10 +9437,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>444</v>
+        <v>213</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9402,10 +9451,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9428,13 +9477,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>197</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>447</v>
+        <v>198</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9485,7 +9534,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>199</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9497,16 +9546,16 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9517,14 +9566,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9534,7 +9583,7 @@
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>79</v>
@@ -9543,15 +9592,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>202</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9576,29 +9627,31 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>449</v>
+        <v>205</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9610,16 +9663,16 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9630,10 +9683,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9653,19 +9706,23 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9689,13 +9746,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9713,7 +9770,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9731,10 +9788,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9745,10 +9802,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9759,28 +9816,28 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>196</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9830,13 +9887,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -9848,10 +9905,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9862,10 +9919,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9879,25 +9936,27 @@
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>184</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>185</v>
+        <v>449</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9945,7 +10004,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>186</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9957,16 +10016,16 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>187</v>
+        <v>453</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9977,44 +10036,44 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10062,28 +10121,28 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>187</v>
+        <v>460</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10094,45 +10153,45 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>152</v>
+        <v>464</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>153</v>
+        <v>465</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10181,28 +10240,28 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>133</v>
+        <v>468</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10213,10 +10272,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10236,19 +10295,23 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10296,7 +10359,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10314,10 +10377,10 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>470</v>
+        <v>221</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10354,13 +10417,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10387,13 +10450,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10429,10 +10492,10 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>476</v>
+        <v>133</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10443,10 +10506,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10457,10 +10520,10 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>79</v>
@@ -10469,15 +10532,17 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10526,13 +10591,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -10572,10 +10637,10 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>79</v>
@@ -10584,13 +10649,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>369</v>
+        <v>196</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>483</v>
+        <v>197</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>484</v>
+        <v>198</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10641,19 +10706,19 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>482</v>
+        <v>199</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10662,7 +10727,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10673,21 +10738,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10699,15 +10764,17 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -10756,19 +10823,19 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -10777,7 +10844,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10788,14 +10855,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10808,24 +10875,26 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10873,7 +10942,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>191</v>
+        <v>355</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -10894,7 +10963,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -10905,46 +10974,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10992,28 +11057,28 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11024,10 +11089,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11050,13 +11115,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>183</v>
+        <v>490</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11107,7 +11172,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11125,10 +11190,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11139,10 +11204,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11165,13 +11230,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11222,7 +11287,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11240,10 +11305,10 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>133</v>
+        <v>499</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11254,10 +11319,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11271,7 +11336,7 @@
         <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>79</v>
@@ -11280,13 +11345,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>343</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11313,13 +11378,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11337,7 +11402,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11369,10 +11434,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11380,7 +11445,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>90</v>
@@ -11395,17 +11460,15 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>500</v>
+        <v>196</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>197</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11454,10 +11517,10 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>499</v>
+        <v>199</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>90</v>
@@ -11466,7 +11529,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11475,7 +11538,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11493,14 +11556,14 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11512,16 +11575,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
+        <v>202</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>506</v>
+        <v>203</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>503</v>
+        <v>166</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11571,38 +11634,736 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>504</v>
+        <v>205</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO83">
+  <autoFilter ref="A1:AO89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11612,7 +12373,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
